--- a/data/quarterly-data-us-mortgage.xlsx
+++ b/data/quarterly-data-us-mortgage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roaringlion/Library/CloudStorage/OneDrive-HochschuleLuzern/BUINT Data/r Proj/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roaringlion/Documents/GitHub/BUINTproj/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8FF7CB56-35F6-C04F-A2DD-399FCFD39961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF2E2BF-955E-E448-BA5A-765D096AB74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beschreibungen" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="108">
   <si>
     <t>Data List: data-lst1</t>
   </si>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -593,7 +593,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Barmettler Jan I.BSCIIM.2101" refreshedDate="44901.995245138889" createdVersion="8" refreshedVersion="8" recordCount="723">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Barmettler Jan I.BSCIIM.2101" refreshedDate="44901.995245138889" createdVersion="8" refreshedVersion="8" recordCount="723" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H724" sheet="rawData"/>
   </cacheSource>
@@ -8646,7 +8646,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:I75" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -9281,7 +9281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9984,11 +9984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9999,1535 +9999,1530 @@
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2009</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="D2">
+        <v>4.7091666666666665</v>
+      </c>
+      <c r="E2">
+        <v>5.1541666666666668</v>
+      </c>
+      <c r="F2">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H2">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I2">
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>94</v>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>5.0123076923076919</v>
+      </c>
+      <c r="D3">
+        <v>4.6284615384615382</v>
+      </c>
+      <c r="E3">
+        <v>4.8992307692307699</v>
+      </c>
+      <c r="F3">
+        <v>2.7423076923076928</v>
+      </c>
+      <c r="G3">
+        <v>0.68461538461538463</v>
+      </c>
+      <c r="H3">
+        <v>0.68461538461538463</v>
+      </c>
+      <c r="I3">
+        <v>0.62307692307692286</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
       <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>101</v>
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>5.1623076923076923</v>
+      </c>
+      <c r="D4">
+        <v>4.6061538461538456</v>
+      </c>
+      <c r="E4">
+        <v>4.6815384615384605</v>
+      </c>
+      <c r="F4">
+        <v>2.7400000000000011</v>
+      </c>
+      <c r="G4">
+        <v>0.66923076923076918</v>
+      </c>
+      <c r="H4">
+        <v>0.68461538461538463</v>
+      </c>
+      <c r="I4">
+        <v>0.59999999999999987</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2009</v>
-      </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>4.9221428571428572</v>
+      </c>
+      <c r="D5">
+        <v>4.3771428571428581</v>
+      </c>
+      <c r="E5">
+        <v>4.3357142857142845</v>
+      </c>
+      <c r="F5">
+        <v>2.741428571428572</v>
+      </c>
+      <c r="G5">
+        <v>0.62142857142857122</v>
+      </c>
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="I5">
+        <v>0.58571428571428563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C5">
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="D5">
-        <v>4.7091666666666665</v>
-      </c>
-      <c r="E5">
-        <v>5.1541666666666668</v>
-      </c>
-      <c r="F5">
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H5">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I5">
-        <v>0.6333333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
       <c r="C6">
-        <v>5.0123076923076919</v>
+        <v>4.9958333333333327</v>
       </c>
       <c r="D6">
-        <v>4.6284615384615382</v>
+        <v>4.3775000000000004</v>
       </c>
       <c r="E6">
-        <v>4.8992307692307699</v>
+        <v>4.2008333333333328</v>
       </c>
       <c r="F6">
-        <v>2.7423076923076928</v>
+        <v>2.7391666666666676</v>
       </c>
       <c r="G6">
-        <v>0.68461538461538463</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="H6">
-        <v>0.68461538461538463</v>
+        <v>0.68333333333333346</v>
       </c>
       <c r="I6">
-        <v>0.62307692307692286</v>
+        <v>0.59166666666666645</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>5.1623076923076923</v>
+        <v>4.9223076923076921</v>
       </c>
       <c r="D7">
-        <v>4.6061538461538456</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="E7">
-        <v>4.6815384615384605</v>
+        <v>3.9884615384615381</v>
       </c>
       <c r="F7">
-        <v>2.7400000000000011</v>
+        <v>2.7453846153846158</v>
       </c>
       <c r="G7">
-        <v>0.66923076923076918</v>
+        <v>0.66153846153846152</v>
       </c>
       <c r="H7">
-        <v>0.68461538461538463</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="I7">
-        <v>0.59999999999999987</v>
+        <v>0.64615384615384619</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>4.4471428571428566</v>
+      </c>
+      <c r="D8">
+        <v>3.9199999999999995</v>
+      </c>
+      <c r="E8">
+        <v>3.6399999999999997</v>
+      </c>
+      <c r="F8">
+        <v>2.7450000000000006</v>
+      </c>
+      <c r="G8">
+        <v>0.64999999999999969</v>
+      </c>
+      <c r="H8">
+        <v>0.70714285714285718</v>
+      </c>
+      <c r="I8">
+        <v>0.63571428571428545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="C8">
-        <v>4.9221428571428572</v>
-      </c>
-      <c r="D8">
-        <v>4.3771428571428581</v>
-      </c>
-      <c r="E8">
-        <v>4.3357142857142845</v>
-      </c>
-      <c r="F8">
-        <v>2.741428571428572</v>
-      </c>
-      <c r="G8">
-        <v>0.62142857142857122</v>
-      </c>
-      <c r="H8">
-        <v>0.7</v>
-      </c>
-      <c r="I8">
-        <v>0.58571428571428563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>4.4361538461538466</v>
+      </c>
+      <c r="D9">
+        <v>3.8200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>3.5130769230769237</v>
+      </c>
+      <c r="F9">
+        <v>2.7484615384615387</v>
+      </c>
+      <c r="G9">
+        <v>0.7153846153846154</v>
+      </c>
+      <c r="H9">
+        <v>0.7846153846153846</v>
+      </c>
+      <c r="I9">
+        <v>0.63076923076923075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C9">
-        <v>4.9958333333333327</v>
-      </c>
-      <c r="D9">
-        <v>4.3775000000000004</v>
-      </c>
-      <c r="E9">
-        <v>4.2008333333333328</v>
-      </c>
-      <c r="F9">
-        <v>2.7391666666666676</v>
-      </c>
-      <c r="G9">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="H9">
-        <v>0.68333333333333346</v>
-      </c>
-      <c r="I9">
-        <v>0.59166666666666645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
       <c r="C10">
-        <v>4.9223076923076921</v>
+        <v>4.8469230769230771</v>
       </c>
       <c r="D10">
-        <v>4.3000000000000007</v>
+        <v>4.1238461538461539</v>
       </c>
       <c r="E10">
-        <v>3.9884615384615381</v>
+        <v>3.7292307692307691</v>
       </c>
       <c r="F10">
-        <v>2.7453846153846158</v>
+        <v>2.7438461538461545</v>
       </c>
       <c r="G10">
-        <v>0.66153846153846152</v>
+        <v>0.72307692307692295</v>
       </c>
       <c r="H10">
-        <v>0.69230769230769229</v>
+        <v>0.72307692307692295</v>
       </c>
       <c r="I10">
-        <v>0.64615384615384619</v>
+        <v>0.64615384615384586</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>4.4471428571428566</v>
+        <v>4.6507692307692308</v>
       </c>
       <c r="D11">
-        <v>3.9199999999999995</v>
+        <v>3.8446153846153845</v>
       </c>
       <c r="E11">
-        <v>3.6399999999999997</v>
+        <v>3.4476923076923076</v>
       </c>
       <c r="F11">
-        <v>2.7450000000000006</v>
+        <v>2.740769230769232</v>
       </c>
       <c r="G11">
-        <v>0.64999999999999969</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
-        <v>0.70714285714285718</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="I11">
-        <v>0.63571428571428545</v>
+        <v>0.58461538461538454</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>4.2915384615384617</v>
+      </c>
+      <c r="D12">
+        <v>3.4730769230769232</v>
+      </c>
+      <c r="E12">
+        <v>3.1169230769230776</v>
+      </c>
+      <c r="F12">
+        <v>2.7361538461538468</v>
+      </c>
+      <c r="G12">
+        <v>0.64615384615384586</v>
+      </c>
+      <c r="H12">
+        <v>0.71538461538461529</v>
+      </c>
+      <c r="I12">
+        <v>0.5692307692307691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C12">
-        <v>4.4361538461538466</v>
-      </c>
-      <c r="D12">
-        <v>3.8200000000000003</v>
-      </c>
-      <c r="E12">
-        <v>3.5130769230769237</v>
-      </c>
-      <c r="F12">
-        <v>2.7484615384615387</v>
-      </c>
-      <c r="G12">
-        <v>0.7153846153846154</v>
-      </c>
-      <c r="H12">
-        <v>0.7846153846153846</v>
-      </c>
-      <c r="I12">
-        <v>0.63076923076923075</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>4.0023076923076921</v>
+      </c>
+      <c r="D13">
+        <v>3.2953846153846156</v>
+      </c>
+      <c r="E13">
+        <v>2.95</v>
+      </c>
+      <c r="F13">
+        <v>2.7423076923076932</v>
+      </c>
+      <c r="G13">
+        <v>0.76923076923076938</v>
+      </c>
+      <c r="H13">
+        <v>0.73846153846153839</v>
+      </c>
+      <c r="I13">
+        <v>0.58461538461538443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C13">
-        <v>4.8469230769230771</v>
-      </c>
-      <c r="D13">
-        <v>4.1238461538461539</v>
-      </c>
-      <c r="E13">
-        <v>3.7292307692307691</v>
-      </c>
-      <c r="F13">
-        <v>2.7438461538461545</v>
-      </c>
-      <c r="G13">
-        <v>0.72307692307692295</v>
-      </c>
-      <c r="H13">
-        <v>0.72307692307692295</v>
-      </c>
-      <c r="I13">
-        <v>0.64615384615384586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
       <c r="C14">
-        <v>4.6507692307692308</v>
+        <v>3.9223076923076929</v>
       </c>
       <c r="D14">
-        <v>3.8446153846153845</v>
+        <v>3.1876923076923074</v>
       </c>
       <c r="E14">
-        <v>3.4476923076923076</v>
+        <v>2.8407692307692307</v>
       </c>
       <c r="F14">
-        <v>2.740769230769232</v>
+        <v>2.7400000000000011</v>
       </c>
       <c r="G14">
-        <v>0.7</v>
+        <v>0.79230769230769238</v>
       </c>
       <c r="H14">
-        <v>0.69230769230769229</v>
+        <v>0.77692307692307694</v>
       </c>
       <c r="I14">
-        <v>0.58461538461538454</v>
+        <v>0.72307692307692306</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15">
-        <v>4.2915384615384617</v>
+        <v>3.7946153846153843</v>
       </c>
       <c r="D15">
-        <v>3.4730769230769232</v>
+        <v>3.0423076923076922</v>
       </c>
       <c r="E15">
-        <v>3.1169230769230776</v>
+        <v>2.8230769230769228</v>
       </c>
       <c r="F15">
-        <v>2.7361538461538468</v>
+        <v>2.7400000000000011</v>
       </c>
       <c r="G15">
-        <v>0.64615384615384586</v>
+        <v>0.68461538461538463</v>
       </c>
       <c r="H15">
-        <v>0.71538461538461529</v>
+        <v>0.73076923076923062</v>
       </c>
       <c r="I15">
-        <v>0.5692307692307691</v>
+        <v>0.63846153846153841</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>3.5538461538461537</v>
+      </c>
+      <c r="D16">
+        <v>2.8376923076923073</v>
+      </c>
+      <c r="E16">
+        <v>2.7507692307692313</v>
+      </c>
+      <c r="F16">
+        <v>2.7430769230769241</v>
+      </c>
+      <c r="G16">
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="H16">
+        <v>0.66153846153846152</v>
+      </c>
+      <c r="I16">
+        <v>0.60769230769230753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C16">
-        <v>4.0023076923076921</v>
-      </c>
-      <c r="D16">
-        <v>3.2953846153846156</v>
-      </c>
-      <c r="E16">
-        <v>2.95</v>
-      </c>
-      <c r="F16">
-        <v>2.7423076923076932</v>
-      </c>
-      <c r="G16">
-        <v>0.76923076923076938</v>
-      </c>
-      <c r="H16">
-        <v>0.73846153846153839</v>
-      </c>
-      <c r="I16">
-        <v>0.58461538461538443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17">
+        <v>3.359230769230769</v>
+      </c>
+      <c r="D17">
+        <v>2.67</v>
+      </c>
+      <c r="E17">
+        <v>2.7246153846153849</v>
+      </c>
+      <c r="F17">
+        <v>2.740769230769232</v>
+      </c>
+      <c r="G17">
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="H17">
+        <v>0.7</v>
+      </c>
+      <c r="I17">
+        <v>0.61538461538461531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="C17">
-        <v>3.9223076923076929</v>
-      </c>
-      <c r="D17">
-        <v>3.1876923076923074</v>
-      </c>
-      <c r="E17">
-        <v>2.8407692307692307</v>
-      </c>
-      <c r="F17">
-        <v>2.7400000000000011</v>
-      </c>
-      <c r="G17">
-        <v>0.79230769230769238</v>
-      </c>
-      <c r="H17">
-        <v>0.77692307692307694</v>
-      </c>
-      <c r="I17">
-        <v>0.72307692307692306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
       <c r="C18">
-        <v>3.7946153846153843</v>
+        <v>3.4969230769230775</v>
       </c>
       <c r="D18">
-        <v>3.0423076923076922</v>
+        <v>2.7369230769230768</v>
       </c>
       <c r="E18">
-        <v>2.8230769230769228</v>
+        <v>2.6515384615384616</v>
       </c>
       <c r="F18">
-        <v>2.7400000000000011</v>
+        <v>2.7569230769230759</v>
       </c>
       <c r="G18">
-        <v>0.68461538461538463</v>
+        <v>0.72307692307692295</v>
       </c>
       <c r="H18">
-        <v>0.73076923076923062</v>
+        <v>0.75384615384615394</v>
       </c>
       <c r="I18">
-        <v>0.63846153846153841</v>
+        <v>0.57692307692307676</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>3.5538461538461537</v>
+        <v>3.6723076923076925</v>
       </c>
       <c r="D19">
-        <v>2.8376923076923073</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E19">
-        <v>2.7507692307692313</v>
+        <v>2.6846153846153844</v>
       </c>
       <c r="F19">
-        <v>2.7430769230769241</v>
+        <v>2.7507692307692304</v>
       </c>
       <c r="G19">
-        <v>0.63076923076923075</v>
+        <v>0.70769230769230773</v>
       </c>
       <c r="H19">
-        <v>0.66153846153846152</v>
+        <v>0.74615384615384628</v>
       </c>
       <c r="I19">
-        <v>0.60769230769230753</v>
+        <v>0.52307692307692311</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>4.4399999999999995</v>
+      </c>
+      <c r="D20">
+        <v>3.4807692307692308</v>
+      </c>
+      <c r="E20">
+        <v>3.1861538461538461</v>
+      </c>
+      <c r="F20">
+        <v>2.746923076923077</v>
+      </c>
+      <c r="G20">
+        <v>0.70769230769230762</v>
+      </c>
+      <c r="H20">
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="I20">
+        <v>0.56153846153846154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="C20">
-        <v>3.359230769230769</v>
-      </c>
-      <c r="D20">
-        <v>2.67</v>
-      </c>
-      <c r="E20">
-        <v>2.7246153846153849</v>
-      </c>
-      <c r="F20">
-        <v>2.740769230769232</v>
-      </c>
-      <c r="G20">
-        <v>0.63076923076923075</v>
-      </c>
-      <c r="H20">
-        <v>0.7</v>
-      </c>
-      <c r="I20">
-        <v>0.61538461538461531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>4.2930769230769235</v>
+      </c>
+      <c r="D21">
+        <v>3.3453846153846154</v>
+      </c>
+      <c r="E21">
+        <v>2.9892307692307694</v>
+      </c>
+      <c r="F21">
+        <v>2.7438461538461545</v>
+      </c>
+      <c r="G21">
+        <v>0.66153846153846152</v>
+      </c>
+      <c r="H21">
+        <v>0.7</v>
+      </c>
+      <c r="I21">
+        <v>0.43846153846153857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C21">
-        <v>3.4969230769230775</v>
-      </c>
-      <c r="D21">
-        <v>2.7369230769230768</v>
-      </c>
-      <c r="E21">
-        <v>2.6515384615384616</v>
-      </c>
-      <c r="F21">
-        <v>2.7569230769230759</v>
-      </c>
-      <c r="G21">
-        <v>0.72307692307692295</v>
-      </c>
-      <c r="H21">
-        <v>0.75384615384615394</v>
-      </c>
-      <c r="I21">
-        <v>0.57692307692307676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
       <c r="C22">
-        <v>3.6723076923076925</v>
+        <v>4.3646153846153846</v>
       </c>
       <c r="D22">
-        <v>2.8400000000000003</v>
+        <v>3.4030769230769233</v>
       </c>
       <c r="E22">
-        <v>2.6846153846153844</v>
+        <v>3.0823076923076931</v>
       </c>
       <c r="F22">
-        <v>2.7507692307692304</v>
+        <v>2.7415384615384628</v>
       </c>
       <c r="G22">
-        <v>0.70769230769230773</v>
+        <v>0.65384615384615385</v>
       </c>
       <c r="H22">
-        <v>0.74615384615384628</v>
+        <v>0.68461538461538463</v>
       </c>
       <c r="I22">
-        <v>0.52307692307692311</v>
+        <v>0.46153846153846162</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23">
-        <v>4.4399999999999995</v>
+        <v>4.2276923076923074</v>
       </c>
       <c r="D23">
-        <v>3.4807692307692308</v>
+        <v>3.3138461538461539</v>
       </c>
       <c r="E23">
-        <v>3.1861538461538461</v>
+        <v>3.02</v>
       </c>
       <c r="F23">
-        <v>2.746923076923077</v>
+        <v>2.7338461538461534</v>
       </c>
       <c r="G23">
-        <v>0.70769230769230762</v>
+        <v>0.55384615384615388</v>
       </c>
       <c r="H23">
-        <v>0.73076923076923073</v>
+        <v>0.6153846153846152</v>
       </c>
       <c r="I23">
-        <v>0.56153846153846154</v>
+        <v>0.42307692307692307</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>4.1353846153846154</v>
+      </c>
+      <c r="D24">
+        <v>3.2615384615384611</v>
+      </c>
+      <c r="E24">
+        <v>2.9930769230769227</v>
+      </c>
+      <c r="F24">
+        <v>2.7376923076923085</v>
+      </c>
+      <c r="G24">
+        <v>0.56153846153846154</v>
+      </c>
+      <c r="H24">
+        <v>0.56153846153846154</v>
+      </c>
+      <c r="I24">
+        <v>0.46923076923076928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="C24">
-        <v>4.2930769230769235</v>
-      </c>
-      <c r="D24">
-        <v>3.3453846153846154</v>
-      </c>
-      <c r="E24">
-        <v>2.9892307692307694</v>
-      </c>
-      <c r="F24">
-        <v>2.7438461538461545</v>
-      </c>
-      <c r="G24">
-        <v>0.66153846153846152</v>
-      </c>
-      <c r="H24">
-        <v>0.7</v>
-      </c>
-      <c r="I24">
-        <v>0.43846153846153857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25">
+        <v>3.9635714285714281</v>
+      </c>
+      <c r="D25">
+        <v>3.1742857142857153</v>
+      </c>
+      <c r="E25">
+        <v>2.984285714285714</v>
+      </c>
+      <c r="F25">
+        <v>2.740714285714287</v>
+      </c>
+      <c r="G25">
+        <v>0.52142857142857135</v>
+      </c>
+      <c r="H25">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C25">
-        <v>4.3646153846153846</v>
-      </c>
-      <c r="D25">
-        <v>3.4030769230769233</v>
-      </c>
-      <c r="E25">
-        <v>3.0823076923076931</v>
-      </c>
-      <c r="F25">
-        <v>2.7415384615384628</v>
-      </c>
-      <c r="G25">
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="H25">
-        <v>0.68461538461538463</v>
-      </c>
-      <c r="I25">
-        <v>0.46153846153846162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
       <c r="C26">
-        <v>4.2276923076923074</v>
+        <v>3.7166666666666663</v>
       </c>
       <c r="D26">
-        <v>3.3138461538461539</v>
+        <v>3.0108333333333337</v>
       </c>
       <c r="E26">
-        <v>3.02</v>
+        <v>2.9316666666666666</v>
       </c>
       <c r="F26">
-        <v>2.7338461538461534</v>
+        <v>2.7400000000000007</v>
       </c>
       <c r="G26">
-        <v>0.55384615384615388</v>
+        <v>0.57499999999999984</v>
       </c>
       <c r="H26">
-        <v>0.6153846153846152</v>
+        <v>0.61666666666666659</v>
       </c>
       <c r="I26">
-        <v>0.42307692307692307</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27">
-        <v>4.1353846153846154</v>
+        <v>3.8192307692307699</v>
       </c>
       <c r="D27">
-        <v>3.2615384615384611</v>
+        <v>3.0561538461538458</v>
       </c>
       <c r="E27">
-        <v>2.9930769230769227</v>
+        <v>2.9107692307692306</v>
       </c>
       <c r="F27">
         <v>2.7376923076923085</v>
       </c>
       <c r="G27">
-        <v>0.56153846153846154</v>
+        <v>0.56153846153846143</v>
       </c>
       <c r="H27">
-        <v>0.56153846153846154</v>
+        <v>0.63076923076923075</v>
       </c>
       <c r="I27">
-        <v>0.46923076923076928</v>
+        <v>0.46153846153846162</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>3.9546153846153853</v>
+      </c>
+      <c r="D28">
+        <v>3.1507692307692303</v>
+      </c>
+      <c r="E28">
+        <v>2.9376923076923074</v>
+      </c>
+      <c r="F28">
+        <v>2.7392307692307702</v>
+      </c>
+      <c r="G28">
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="H28">
+        <v>0.60769230769230753</v>
+      </c>
+      <c r="I28">
+        <v>0.4538461538461539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="C28">
-        <v>3.9635714285714281</v>
-      </c>
-      <c r="D28">
-        <v>3.1742857142857153</v>
-      </c>
-      <c r="E28">
-        <v>2.984285714285714</v>
-      </c>
-      <c r="F28">
-        <v>2.740714285714287</v>
-      </c>
-      <c r="G28">
-        <v>0.52142857142857135</v>
-      </c>
-      <c r="H28">
-        <v>0.51428571428571423</v>
-      </c>
-      <c r="I28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29">
+        <v>3.8978571428571427</v>
+      </c>
+      <c r="D29">
+        <v>3.1235714285714282</v>
+      </c>
+      <c r="E29">
+        <v>2.9728571428571433</v>
+      </c>
+      <c r="F29">
+        <v>2.745714285714286</v>
+      </c>
+      <c r="G29">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H29">
+        <v>0.60714285714285698</v>
+      </c>
+      <c r="I29">
+        <v>0.42857142857142866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C29">
-        <v>3.7166666666666663</v>
-      </c>
-      <c r="D29">
-        <v>3.0108333333333337</v>
-      </c>
-      <c r="E29">
-        <v>2.9316666666666666</v>
-      </c>
-      <c r="F29">
-        <v>2.7400000000000007</v>
-      </c>
-      <c r="G29">
-        <v>0.57499999999999984</v>
-      </c>
-      <c r="H29">
-        <v>0.61666666666666659</v>
-      </c>
-      <c r="I29">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
       <c r="C30">
-        <v>3.8192307692307699</v>
+        <v>3.7384615384615381</v>
       </c>
       <c r="D30">
-        <v>3.0561538461538458</v>
+        <v>3.0223076923076921</v>
       </c>
       <c r="E30">
-        <v>2.9107692307692306</v>
+        <v>2.9007692307692308</v>
       </c>
       <c r="F30">
-        <v>2.7376923076923085</v>
+        <v>2.7407692307692315</v>
       </c>
       <c r="G30">
-        <v>0.56153846153846143</v>
+        <v>0.47692307692307701</v>
       </c>
       <c r="H30">
-        <v>0.63076923076923075</v>
+        <v>0.5461538461538461</v>
       </c>
       <c r="I30">
-        <v>0.46153846153846162</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
-        <v>3.9546153846153853</v>
+        <v>3.5892307692307694</v>
       </c>
       <c r="D31">
-        <v>3.1507692307692303</v>
+        <v>2.8507692307692305</v>
       </c>
       <c r="E31">
-        <v>2.9376923076923074</v>
+        <v>2.8046153846153854</v>
       </c>
       <c r="F31">
-        <v>2.7392307692307702</v>
+        <v>2.7376923076923085</v>
       </c>
       <c r="G31">
-        <v>0.59999999999999987</v>
+        <v>0.49230769230769234</v>
       </c>
       <c r="H31">
-        <v>0.60769230769230753</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="I31">
-        <v>0.4538461538461539</v>
+        <v>0.49230769230769234</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>3.4461538461538459</v>
+      </c>
+      <c r="D32">
+        <v>2.7500000000000004</v>
+      </c>
+      <c r="E32">
+        <v>2.773076923076923</v>
+      </c>
+      <c r="F32">
+        <v>2.740769230769232</v>
+      </c>
+      <c r="G32">
+        <v>0.49230769230769234</v>
+      </c>
+      <c r="H32">
+        <v>0.52307692307692299</v>
+      </c>
+      <c r="I32">
+        <v>0.44615384615384623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C32">
-        <v>3.8978571428571427</v>
-      </c>
-      <c r="D32">
-        <v>3.1235714285714282</v>
-      </c>
-      <c r="E32">
-        <v>2.9728571428571433</v>
-      </c>
-      <c r="F32">
-        <v>2.745714285714286</v>
-      </c>
-      <c r="G32">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H32">
-        <v>0.60714285714285698</v>
-      </c>
-      <c r="I32">
-        <v>0.42857142857142866</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>3.8423076923076929</v>
+      </c>
+      <c r="D33">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="E33">
+        <v>3.0292307692307689</v>
+      </c>
+      <c r="F33">
+        <v>2.7400000000000011</v>
+      </c>
+      <c r="G33">
+        <v>0.50769230769230766</v>
+      </c>
+      <c r="H33">
+        <v>0.51538461538461544</v>
+      </c>
+      <c r="I33">
+        <v>0.41538461538461541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C33">
-        <v>3.7384615384615381</v>
-      </c>
-      <c r="D33">
-        <v>3.0223076923076921</v>
-      </c>
-      <c r="E33">
-        <v>2.9007692307692308</v>
-      </c>
-      <c r="F33">
-        <v>2.7407692307692315</v>
-      </c>
-      <c r="G33">
-        <v>0.47692307692307701</v>
-      </c>
-      <c r="H33">
-        <v>0.5461538461538461</v>
-      </c>
-      <c r="I33">
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
       <c r="C34">
-        <v>3.5892307692307694</v>
+        <v>4.1730769230769234</v>
       </c>
       <c r="D34">
-        <v>2.8507692307692305</v>
+        <v>3.3953846153846152</v>
       </c>
       <c r="E34">
-        <v>2.8046153846153854</v>
+        <v>3.2169230769230768</v>
       </c>
       <c r="F34">
-        <v>2.7376923076923085</v>
+        <v>2.7400000000000011</v>
       </c>
       <c r="G34">
-        <v>0.49230769230769234</v>
+        <v>0.47692307692307695</v>
       </c>
       <c r="H34">
-        <v>0.53846153846153844</v>
+        <v>0.48461538461538461</v>
       </c>
       <c r="I34">
-        <v>0.49230769230769234</v>
+        <v>0.40769230769230774</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35">
-        <v>3.4461538461538459</v>
+        <v>3.9799999999999995</v>
       </c>
       <c r="D35">
-        <v>2.7500000000000004</v>
+        <v>3.2376923076923081</v>
       </c>
       <c r="E35">
-        <v>2.773076923076923</v>
+        <v>3.1338461538461542</v>
       </c>
       <c r="F35">
-        <v>2.740769230769232</v>
+        <v>2.7392307692307698</v>
       </c>
       <c r="G35">
         <v>0.49230769230769234</v>
       </c>
       <c r="H35">
-        <v>0.52307692307692299</v>
+        <v>0.5</v>
       </c>
       <c r="I35">
-        <v>0.44615384615384623</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36">
-        <v>3.8423076923076929</v>
+        <v>3.8838461538461533</v>
       </c>
       <c r="D36">
-        <v>3.0999999999999996</v>
+        <v>3.1661538461538465</v>
       </c>
       <c r="E36">
-        <v>3.0292307692307689</v>
+        <v>3.1761538461538468</v>
       </c>
       <c r="F36">
         <v>2.7400000000000011</v>
       </c>
       <c r="G36">
-        <v>0.50769230769230766</v>
+        <v>0.5</v>
       </c>
       <c r="H36">
-        <v>0.51538461538461544</v>
+        <v>0.51538461538461533</v>
       </c>
       <c r="I36">
-        <v>0.41538461538461541</v>
+        <v>0.46923076923076934</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
       <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>3.9223076923076921</v>
+      </c>
+      <c r="D37">
+        <v>3.2907692307692309</v>
+      </c>
+      <c r="E37">
+        <v>3.2684615384615379</v>
+      </c>
+      <c r="F37">
+        <v>2.7430769230769232</v>
+      </c>
+      <c r="G37">
+        <v>0.49230769230769234</v>
+      </c>
+      <c r="H37">
+        <v>0.49230769230769234</v>
+      </c>
+      <c r="I37">
+        <v>0.37692307692307686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38" t="s">
         <v>63</v>
       </c>
-      <c r="C37">
-        <v>4.1730769230769234</v>
-      </c>
-      <c r="D37">
-        <v>3.3953846153846152</v>
-      </c>
-      <c r="E37">
-        <v>3.2169230769230768</v>
-      </c>
-      <c r="F37">
-        <v>2.7400000000000011</v>
-      </c>
-      <c r="G37">
-        <v>0.47692307692307695</v>
-      </c>
-      <c r="H37">
-        <v>0.48461538461538461</v>
-      </c>
-      <c r="I37">
-        <v>0.40769230769230774</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
       <c r="C38">
-        <v>3.9799999999999995</v>
+        <v>4.2823076923076924</v>
       </c>
       <c r="D38">
-        <v>3.2376923076923081</v>
+        <v>3.7399999999999998</v>
       </c>
       <c r="E38">
-        <v>3.1338461538461542</v>
+        <v>3.5792307692307692</v>
       </c>
       <c r="F38">
-        <v>2.7392307692307698</v>
+        <v>2.75</v>
       </c>
       <c r="G38">
-        <v>0.49230769230769234</v>
+        <v>0.5</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>0.52307692307692311</v>
       </c>
       <c r="I38">
-        <v>0.46153846153846156</v>
+        <v>0.39230769230769236</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>3.8838461538461533</v>
+        <v>4.5446153846153843</v>
       </c>
       <c r="D39">
-        <v>3.1661538461538465</v>
+        <v>4.014615384615384</v>
       </c>
       <c r="E39">
-        <v>3.1761538461538468</v>
+        <v>3.7584615384615385</v>
       </c>
       <c r="F39">
-        <v>2.7400000000000011</v>
+        <v>2.7646153846153845</v>
       </c>
       <c r="G39">
-        <v>0.5</v>
+        <v>0.40769230769230769</v>
       </c>
       <c r="H39">
-        <v>0.51538461538461533</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I39">
-        <v>0.46923076923076934</v>
+        <v>0.31538461538461537</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>4.5669230769230769</v>
+      </c>
+      <c r="D40">
+        <v>4.0338461538461541</v>
+      </c>
+      <c r="E40">
+        <v>3.8815384615384616</v>
+      </c>
+      <c r="F40">
+        <v>2.7623076923076919</v>
+      </c>
+      <c r="G40">
+        <v>0.4538461538461539</v>
+      </c>
+      <c r="H40">
+        <v>0.47692307692307695</v>
+      </c>
+      <c r="I40">
+        <v>0.31538461538461526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>66</v>
       </c>
-      <c r="C40">
-        <v>3.9223076923076921</v>
-      </c>
-      <c r="D40">
-        <v>3.2907692307692309</v>
-      </c>
-      <c r="E40">
-        <v>3.2684615384615379</v>
-      </c>
-      <c r="F40">
-        <v>2.7430769230769232</v>
-      </c>
-      <c r="G40">
-        <v>0.49230769230769234</v>
-      </c>
-      <c r="H40">
-        <v>0.49230769230769234</v>
-      </c>
-      <c r="I40">
-        <v>0.37692307692307686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>2018</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>4.7846153846153845</v>
+      </c>
+      <c r="D41">
+        <v>4.212307692307693</v>
+      </c>
+      <c r="E41">
+        <v>4.0723076923076924</v>
+      </c>
+      <c r="F41">
+        <v>2.7676923076923075</v>
+      </c>
+      <c r="G41">
+        <v>0.43846153846153857</v>
+      </c>
+      <c r="H41">
+        <v>0.47692307692307695</v>
+      </c>
+      <c r="I41">
+        <v>0.29999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C41">
-        <v>4.2823076923076924</v>
-      </c>
-      <c r="D41">
-        <v>3.7399999999999998</v>
-      </c>
-      <c r="E41">
-        <v>3.5792307692307692</v>
-      </c>
-      <c r="F41">
-        <v>2.75</v>
-      </c>
-      <c r="G41">
-        <v>0.5</v>
-      </c>
-      <c r="H41">
-        <v>0.52307692307692311</v>
-      </c>
-      <c r="I41">
-        <v>0.39230769230769236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
       <c r="C42">
-        <v>4.5446153846153843</v>
+        <v>4.3738461538461548</v>
       </c>
       <c r="D42">
-        <v>4.014615384615384</v>
+        <v>3.8153846153846156</v>
       </c>
       <c r="E42">
-        <v>3.7584615384615385</v>
+        <v>3.87</v>
       </c>
       <c r="F42">
-        <v>2.7646153846153845</v>
+        <v>2.7623076923076928</v>
       </c>
       <c r="G42">
-        <v>0.40769230769230769</v>
+        <v>0.40769230769230774</v>
       </c>
       <c r="H42">
-        <v>0.46153846153846156</v>
+        <v>0.4538461538461539</v>
       </c>
       <c r="I42">
-        <v>0.31538461538461537</v>
+        <v>0.29230769230769221</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43">
-        <v>4.5669230769230769</v>
+        <v>4.0107692307692311</v>
       </c>
       <c r="D43">
-        <v>4.0338461538461541</v>
+        <v>3.4646153846153851</v>
       </c>
       <c r="E43">
-        <v>3.8815384615384616</v>
+        <v>3.6276923076923073</v>
       </c>
       <c r="F43">
-        <v>2.7623076923076919</v>
+        <v>2.7538461538461538</v>
       </c>
       <c r="G43">
-        <v>0.4538461538461539</v>
+        <v>0.44615384615384623</v>
       </c>
       <c r="H43">
-        <v>0.47692307692307695</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="I43">
-        <v>0.31538461538461526</v>
+        <v>0.39230769230769236</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44">
+        <v>3.6584615384615393</v>
+      </c>
+      <c r="D44">
+        <v>3.1292307692307699</v>
+      </c>
+      <c r="E44">
+        <v>3.3992307692307695</v>
+      </c>
+      <c r="F44">
+        <v>2.7446153846153858</v>
+      </c>
+      <c r="G44">
+        <v>0.50769230769230766</v>
+      </c>
+      <c r="H44">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="I44">
+        <v>0.3692307692307692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="C44">
-        <v>4.7846153846153845</v>
-      </c>
-      <c r="D44">
-        <v>4.212307692307693</v>
-      </c>
-      <c r="E44">
-        <v>4.0723076923076924</v>
-      </c>
-      <c r="F44">
-        <v>2.7676923076923075</v>
-      </c>
-      <c r="G44">
-        <v>0.43846153846153857</v>
-      </c>
-      <c r="H44">
-        <v>0.47692307692307695</v>
-      </c>
-      <c r="I44">
-        <v>0.29999999999999993</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C45">
+        <v>3.7</v>
+      </c>
+      <c r="D45">
+        <v>3.1576923076923071</v>
+      </c>
+      <c r="E45">
+        <v>3.3946153846153848</v>
+      </c>
+      <c r="F45">
+        <v>2.75</v>
+      </c>
+      <c r="G45">
+        <v>0.53846153846153855</v>
+      </c>
+      <c r="H45">
+        <v>0.58461538461538465</v>
+      </c>
+      <c r="I45">
+        <v>0.36153846153846148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
         <v>63</v>
       </c>
-      <c r="C45">
-        <v>4.3738461538461548</v>
-      </c>
-      <c r="D45">
-        <v>3.8153846153846156</v>
-      </c>
-      <c r="E45">
-        <v>3.87</v>
-      </c>
-      <c r="F45">
-        <v>2.7623076923076928</v>
-      </c>
-      <c r="G45">
-        <v>0.40769230769230774</v>
-      </c>
-      <c r="H45">
-        <v>0.4538461538461539</v>
-      </c>
-      <c r="I45">
-        <v>0.29230769230769221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
       <c r="C46">
-        <v>4.0107692307692311</v>
+        <v>3.5215384615384613</v>
       </c>
       <c r="D46">
-        <v>3.4646153846153851</v>
+        <v>2.983076923076923</v>
       </c>
       <c r="E46">
-        <v>3.6276923076923073</v>
+        <v>3.2584615384615385</v>
       </c>
       <c r="F46">
-        <v>2.7538461538461538</v>
+        <v>2.7507692307692304</v>
       </c>
       <c r="G46">
-        <v>0.44615384615384623</v>
+        <v>0.72307692307692295</v>
       </c>
       <c r="H46">
-        <v>0.50769230769230766</v>
+        <v>0.70769230769230762</v>
       </c>
       <c r="I46">
-        <v>0.39230769230769236</v>
+        <v>0.25384615384615389</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>3.6584615384615393</v>
+        <v>3.2392307692307698</v>
       </c>
       <c r="D47">
-        <v>3.1292307692307699</v>
+        <v>2.7076923076923078</v>
       </c>
       <c r="E47">
-        <v>3.3992307692307695</v>
+        <v>3.1984615384615385</v>
       </c>
       <c r="F47">
-        <v>2.7446153846153858</v>
+        <v>2.75</v>
       </c>
       <c r="G47">
-        <v>0.50769230769230766</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="H47">
-        <v>0.53846153846153844</v>
+        <v>0.73846153846153861</v>
       </c>
       <c r="I47">
-        <v>0.3692307692307692</v>
+        <v>0.36153846153846153</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48">
-        <v>3.7</v>
+        <v>2.9523076923076923</v>
       </c>
       <c r="D48">
-        <v>3.1576923076923071</v>
+        <v>2.4646153846153851</v>
       </c>
       <c r="E48">
-        <v>3.3946153846153848</v>
+        <v>2.971538461538461</v>
       </c>
       <c r="F48">
         <v>2.75</v>
       </c>
       <c r="G48">
-        <v>0.53846153846153855</v>
+        <v>0.74615384615384606</v>
       </c>
       <c r="H48">
-        <v>0.58461538461538465</v>
+        <v>0.79230769230769238</v>
       </c>
       <c r="I48">
-        <v>0.36153846153846148</v>
+        <v>0.29230769230769232</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>88</v>
-      </c>
       <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <v>2.7607142857142861</v>
+      </c>
+      <c r="D49">
+        <v>2.2885714285714287</v>
+      </c>
+      <c r="E49">
+        <v>2.8850000000000002</v>
+      </c>
+      <c r="F49">
+        <v>2.75</v>
+      </c>
+      <c r="G49">
+        <v>0.60714285714285698</v>
+      </c>
+      <c r="H49">
+        <v>0.7</v>
+      </c>
+      <c r="I49">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
         <v>63</v>
       </c>
-      <c r="C49">
-        <v>3.5215384615384613</v>
-      </c>
-      <c r="D49">
-        <v>2.983076923076923</v>
-      </c>
-      <c r="E49">
-        <v>3.2584615384615385</v>
-      </c>
-      <c r="F49">
-        <v>2.7507692307692304</v>
-      </c>
-      <c r="G49">
-        <v>0.72307692307692295</v>
-      </c>
-      <c r="H49">
-        <v>0.70769230769230762</v>
-      </c>
-      <c r="I49">
-        <v>0.25384615384615389</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>64</v>
-      </c>
       <c r="C50">
-        <v>3.2392307692307698</v>
+        <v>2.875833333333333</v>
       </c>
       <c r="D50">
-        <v>2.7076923076923078</v>
+        <v>2.2766666666666664</v>
       </c>
       <c r="E50">
-        <v>3.1984615384615385</v>
+        <v>2.8274999999999992</v>
       </c>
       <c r="F50">
         <v>2.75</v>
       </c>
       <c r="G50">
-        <v>0.70000000000000007</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H50">
-        <v>0.73846153846153861</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="I50">
-        <v>0.36153846153846153</v>
+        <v>0.27499999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>2.9523076923076923</v>
+        <v>3.0038461538461543</v>
       </c>
       <c r="D51">
-        <v>2.4646153846153851</v>
+        <v>2.3092307692307692</v>
       </c>
       <c r="E51">
-        <v>2.971538461538461</v>
+        <v>2.6723076923076925</v>
       </c>
       <c r="F51">
         <v>2.75</v>
       </c>
       <c r="G51">
-        <v>0.74615384615384606</v>
+        <v>0.63076923076923075</v>
       </c>
       <c r="H51">
-        <v>0.79230769230769238</v>
+        <v>0.67692307692307685</v>
       </c>
       <c r="I51">
-        <v>0.29230769230769232</v>
+        <v>0.26923076923076922</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52">
-        <v>2.7607142857142861</v>
+        <v>2.8721428571428573</v>
       </c>
       <c r="D52">
-        <v>2.2885714285714287</v>
+        <v>2.1714285714285717</v>
       </c>
       <c r="E52">
-        <v>2.8850000000000002</v>
+        <v>2.4592857142857141</v>
       </c>
       <c r="F52">
         <v>2.75</v>
       </c>
       <c r="G52">
-        <v>0.60714285714285698</v>
+        <v>0.63571428571428557</v>
       </c>
       <c r="H52">
-        <v>0.7</v>
+        <v>0.66428571428571426</v>
       </c>
       <c r="I52">
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>90</v>
-      </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C53">
-        <v>2.875833333333333</v>
+        <v>3.0792307692307692</v>
       </c>
       <c r="D53">
-        <v>2.2766666666666664</v>
+        <v>2.3384615384615381</v>
       </c>
       <c r="E53">
-        <v>2.8274999999999992</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="F53">
         <v>2.75</v>
       </c>
       <c r="G53">
-        <v>0.6333333333333333</v>
+        <v>0.66923076923076918</v>
       </c>
       <c r="H53">
-        <v>0.67499999999999993</v>
+        <v>0.68461538461538451</v>
       </c>
       <c r="I53">
-        <v>0.27499999999999997</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54">
-        <v>3.0038461538461543</v>
+        <v>3.8223076923076933</v>
       </c>
       <c r="D54">
-        <v>2.3092307692307692</v>
+        <v>3.0446153846153843</v>
       </c>
       <c r="E54">
-        <v>2.6723076923076925</v>
+        <v>2.8984615384615391</v>
       </c>
       <c r="F54">
-        <v>2.75</v>
+        <v>2.7507692307692304</v>
       </c>
       <c r="G54">
-        <v>0.63076923076923075</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="H54">
-        <v>0.67692307692307685</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="I54">
-        <v>0.26923076923076922</v>
+        <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55">
-        <v>2.8721428571428573</v>
+        <v>5.2661538461538466</v>
       </c>
       <c r="D55">
-        <v>2.1714285714285717</v>
+        <v>4.4507692307692315</v>
       </c>
       <c r="E55">
-        <v>2.4592857142857141</v>
+        <v>4.0307692307692298</v>
       </c>
       <c r="F55">
         <v>2.75</v>
       </c>
       <c r="G55">
-        <v>0.63571428571428557</v>
+        <v>0.85384615384615392</v>
       </c>
       <c r="H55">
-        <v>0.66428571428571426</v>
+        <v>0.85384615384615414</v>
       </c>
       <c r="I55">
-        <v>0.2857142857142857</v>
+        <v>0.28461538461538455</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56">
-        <v>3.0792307692307692</v>
+        <v>5.6230769230769235</v>
       </c>
       <c r="D56">
-        <v>2.3384615384615381</v>
+        <v>4.8807692307692312</v>
       </c>
       <c r="E56">
-        <v>2.4899999999999998</v>
+        <v>4.5323076923076915</v>
       </c>
       <c r="F56">
         <v>2.75</v>
       </c>
       <c r="G56">
-        <v>0.66923076923076918</v>
+        <v>0.83076923076923082</v>
       </c>
       <c r="H56">
-        <v>0.68461538461538451</v>
+        <v>0.8</v>
       </c>
       <c r="I56">
-        <v>0.32307692307692304</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>92</v>
-      </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C57">
-        <v>3.8223076923076933</v>
+        <v>6.9383333333333335</v>
       </c>
       <c r="D57">
-        <v>3.0446153846153843</v>
+        <v>6.208333333333333</v>
       </c>
       <c r="E57">
-        <v>2.8984615384615391</v>
+        <v>5.8083333333333336</v>
       </c>
       <c r="F57">
-        <v>2.7507692307692304</v>
+        <v>2.75</v>
       </c>
       <c r="G57">
-        <v>0.73076923076923073</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="H57">
-        <v>0.76923076923076927</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I57">
-        <v>0.29999999999999993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>5.2661538461538466</v>
-      </c>
-      <c r="D58">
-        <v>4.4507692307692315</v>
-      </c>
-      <c r="E58">
-        <v>4.0307692307692298</v>
-      </c>
-      <c r="F58">
-        <v>2.75</v>
-      </c>
-      <c r="G58">
-        <v>0.85384615384615392</v>
-      </c>
-      <c r="H58">
-        <v>0.85384615384615414</v>
-      </c>
-      <c r="I58">
-        <v>0.28461538461538455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59">
-        <v>5.6230769230769235</v>
-      </c>
-      <c r="D59">
-        <v>4.8807692307692312</v>
-      </c>
-      <c r="E59">
-        <v>4.5323076923076915</v>
-      </c>
-      <c r="F59">
-        <v>2.75</v>
-      </c>
-      <c r="G59">
-        <v>0.83076923076923082</v>
-      </c>
-      <c r="H59">
-        <v>0.8</v>
-      </c>
-      <c r="I59">
-        <v>0.30769230769230771</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60">
-        <v>6.9383333333333335</v>
-      </c>
-      <c r="D60">
-        <v>6.208333333333333</v>
-      </c>
-      <c r="E60">
-        <v>5.8083333333333336</v>
-      </c>
-      <c r="F60">
-        <v>2.75</v>
-      </c>
-      <c r="G60">
-        <v>1.1333333333333333</v>
-      </c>
-      <c r="H60">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I60">
         <v>0.26666666666666666</v>
       </c>
     </row>
@@ -11537,7 +11532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30385,7 +30380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/quarterly-data-us-mortgage.xlsx
+++ b/data/quarterly-data-us-mortgage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roaringlion/Documents/GitHub/BUINTproj/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF2E2BF-955E-E448-BA5A-765D096AB74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9F6B9-823D-004D-9742-C56FAC2376BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="108">
   <si>
     <t>Data List: data-lst1</t>
   </si>
@@ -544,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -575,6 +575,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8646,7 +8650,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:I75" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -9985,1544 +9989,1499 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2009</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="27">
+        <v>39814</v>
+      </c>
+      <c r="B2">
+        <v>5.0600000000000005</v>
       </c>
       <c r="C2">
-        <v>5.0600000000000005</v>
+        <v>4.7091666666666665</v>
       </c>
       <c r="D2">
-        <v>4.7091666666666665</v>
+        <v>5.1541666666666668</v>
       </c>
       <c r="E2">
-        <v>5.1541666666666668</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="F2">
-        <v>2.7250000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="G2">
         <v>0.70000000000000007</v>
       </c>
       <c r="H2">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I2">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>64</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="26">
+        <v>39904</v>
+      </c>
+      <c r="B3">
+        <v>5.0123076923076919</v>
       </c>
       <c r="C3">
-        <v>5.0123076923076919</v>
+        <v>4.6284615384615382</v>
       </c>
       <c r="D3">
-        <v>4.6284615384615382</v>
+        <v>4.8992307692307699</v>
       </c>
       <c r="E3">
-        <v>4.8992307692307699</v>
+        <v>2.7423076923076928</v>
       </c>
       <c r="F3">
-        <v>2.7423076923076928</v>
+        <v>0.68461538461538463</v>
       </c>
       <c r="G3">
         <v>0.68461538461538463</v>
       </c>
       <c r="H3">
+        <v>0.62307692307692286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="26">
+        <v>39995</v>
+      </c>
+      <c r="B4">
+        <v>5.1623076923076923</v>
+      </c>
+      <c r="C4">
+        <v>4.6061538461538456</v>
+      </c>
+      <c r="D4">
+        <v>4.6815384615384605</v>
+      </c>
+      <c r="E4">
+        <v>2.7400000000000011</v>
+      </c>
+      <c r="F4">
+        <v>0.66923076923076918</v>
+      </c>
+      <c r="G4">
         <v>0.68461538461538463</v>
       </c>
-      <c r="I3">
-        <v>0.62307692307692286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4">
-        <v>5.1623076923076923</v>
-      </c>
-      <c r="D4">
-        <v>4.6061538461538456</v>
-      </c>
-      <c r="E4">
-        <v>4.6815384615384605</v>
-      </c>
-      <c r="F4">
-        <v>2.7400000000000011</v>
-      </c>
-      <c r="G4">
-        <v>0.66923076923076918</v>
-      </c>
       <c r="H4">
-        <v>0.68461538461538463</v>
-      </c>
-      <c r="I4">
         <v>0.59999999999999987</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>66</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="26">
+        <v>40087</v>
+      </c>
+      <c r="B5">
+        <v>4.9221428571428572</v>
       </c>
       <c r="C5">
-        <v>4.9221428571428572</v>
+        <v>4.3771428571428581</v>
       </c>
       <c r="D5">
-        <v>4.3771428571428581</v>
+        <v>4.3357142857142845</v>
       </c>
       <c r="E5">
-        <v>4.3357142857142845</v>
+        <v>2.741428571428572</v>
       </c>
       <c r="F5">
-        <v>2.741428571428572</v>
+        <v>0.62142857142857122</v>
       </c>
       <c r="G5">
-        <v>0.62142857142857122</v>
+        <v>0.7</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
-      </c>
-      <c r="I5">
         <v>0.58571428571428563</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="26">
+        <v>40179</v>
+      </c>
+      <c r="B6">
+        <v>4.9958333333333327</v>
       </c>
       <c r="C6">
-        <v>4.9958333333333327</v>
+        <v>4.3775000000000004</v>
       </c>
       <c r="D6">
-        <v>4.3775000000000004</v>
+        <v>4.2008333333333328</v>
       </c>
       <c r="E6">
-        <v>4.2008333333333328</v>
+        <v>2.7391666666666676</v>
       </c>
       <c r="F6">
-        <v>2.7391666666666676</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="G6">
-        <v>0.64166666666666672</v>
+        <v>0.68333333333333346</v>
       </c>
       <c r="H6">
-        <v>0.68333333333333346</v>
-      </c>
-      <c r="I6">
         <v>0.59166666666666645</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>64</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="26">
+        <v>40269</v>
+      </c>
+      <c r="B7">
+        <v>4.9223076923076921</v>
       </c>
       <c r="C7">
-        <v>4.9223076923076921</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="D7">
-        <v>4.3000000000000007</v>
+        <v>3.9884615384615381</v>
       </c>
       <c r="E7">
-        <v>3.9884615384615381</v>
+        <v>2.7453846153846158</v>
       </c>
       <c r="F7">
-        <v>2.7453846153846158</v>
+        <v>0.66153846153846152</v>
       </c>
       <c r="G7">
-        <v>0.66153846153846152</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="H7">
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="I7">
         <v>0.64615384615384619</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>65</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="26">
+        <v>40360</v>
+      </c>
+      <c r="B8">
+        <v>4.4471428571428566</v>
       </c>
       <c r="C8">
-        <v>4.4471428571428566</v>
+        <v>3.9199999999999995</v>
       </c>
       <c r="D8">
-        <v>3.9199999999999995</v>
+        <v>3.6399999999999997</v>
       </c>
       <c r="E8">
-        <v>3.6399999999999997</v>
+        <v>2.7450000000000006</v>
       </c>
       <c r="F8">
-        <v>2.7450000000000006</v>
+        <v>0.64999999999999969</v>
       </c>
       <c r="G8">
-        <v>0.64999999999999969</v>
+        <v>0.70714285714285718</v>
       </c>
       <c r="H8">
-        <v>0.70714285714285718</v>
-      </c>
-      <c r="I8">
         <v>0.63571428571428545</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>66</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="26">
+        <v>40452</v>
+      </c>
+      <c r="B9">
+        <v>4.4361538461538466</v>
       </c>
       <c r="C9">
-        <v>4.4361538461538466</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="D9">
-        <v>3.8200000000000003</v>
+        <v>3.5130769230769237</v>
       </c>
       <c r="E9">
-        <v>3.5130769230769237</v>
+        <v>2.7484615384615387</v>
       </c>
       <c r="F9">
-        <v>2.7484615384615387</v>
+        <v>0.7153846153846154</v>
       </c>
       <c r="G9">
-        <v>0.7153846153846154</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="H9">
-        <v>0.7846153846153846</v>
-      </c>
-      <c r="I9">
         <v>0.63076923076923075</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="26">
+        <v>40544</v>
+      </c>
+      <c r="B10">
+        <v>4.8469230769230771</v>
       </c>
       <c r="C10">
-        <v>4.8469230769230771</v>
+        <v>4.1238461538461539</v>
       </c>
       <c r="D10">
-        <v>4.1238461538461539</v>
+        <v>3.7292307692307691</v>
       </c>
       <c r="E10">
-        <v>3.7292307692307691</v>
+        <v>2.7438461538461545</v>
       </c>
       <c r="F10">
-        <v>2.7438461538461545</v>
+        <v>0.72307692307692295</v>
       </c>
       <c r="G10">
         <v>0.72307692307692295</v>
       </c>
       <c r="H10">
+        <v>0.64615384615384586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="26">
+        <v>40634</v>
+      </c>
+      <c r="B11">
+        <v>4.6507692307692308</v>
+      </c>
+      <c r="C11">
+        <v>3.8446153846153845</v>
+      </c>
+      <c r="D11">
+        <v>3.4476923076923076</v>
+      </c>
+      <c r="E11">
+        <v>2.740769230769232</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="H11">
+        <v>0.58461538461538454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="26">
+        <v>40725</v>
+      </c>
+      <c r="B12">
+        <v>4.2915384615384617</v>
+      </c>
+      <c r="C12">
+        <v>3.4730769230769232</v>
+      </c>
+      <c r="D12">
+        <v>3.1169230769230776</v>
+      </c>
+      <c r="E12">
+        <v>2.7361538461538468</v>
+      </c>
+      <c r="F12">
+        <v>0.64615384615384586</v>
+      </c>
+      <c r="G12">
+        <v>0.71538461538461529</v>
+      </c>
+      <c r="H12">
+        <v>0.5692307692307691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="26">
+        <v>40817</v>
+      </c>
+      <c r="B13">
+        <v>4.0023076923076921</v>
+      </c>
+      <c r="C13">
+        <v>3.2953846153846156</v>
+      </c>
+      <c r="D13">
+        <v>2.95</v>
+      </c>
+      <c r="E13">
+        <v>2.7423076923076932</v>
+      </c>
+      <c r="F13">
+        <v>0.76923076923076938</v>
+      </c>
+      <c r="G13">
+        <v>0.73846153846153839</v>
+      </c>
+      <c r="H13">
+        <v>0.58461538461538443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="26">
+        <v>40909</v>
+      </c>
+      <c r="B14">
+        <v>3.9223076923076929</v>
+      </c>
+      <c r="C14">
+        <v>3.1876923076923074</v>
+      </c>
+      <c r="D14">
+        <v>2.8407692307692307</v>
+      </c>
+      <c r="E14">
+        <v>2.7400000000000011</v>
+      </c>
+      <c r="F14">
+        <v>0.79230769230769238</v>
+      </c>
+      <c r="G14">
+        <v>0.77692307692307694</v>
+      </c>
+      <c r="H14">
+        <v>0.72307692307692306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="26">
+        <v>41000</v>
+      </c>
+      <c r="B15">
+        <v>3.7946153846153843</v>
+      </c>
+      <c r="C15">
+        <v>3.0423076923076922</v>
+      </c>
+      <c r="D15">
+        <v>2.8230769230769228</v>
+      </c>
+      <c r="E15">
+        <v>2.7400000000000011</v>
+      </c>
+      <c r="F15">
+        <v>0.68461538461538463</v>
+      </c>
+      <c r="G15">
+        <v>0.73076923076923062</v>
+      </c>
+      <c r="H15">
+        <v>0.63846153846153841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="26">
+        <v>41091</v>
+      </c>
+      <c r="B16">
+        <v>3.5538461538461537</v>
+      </c>
+      <c r="C16">
+        <v>2.8376923076923073</v>
+      </c>
+      <c r="D16">
+        <v>2.7507692307692313</v>
+      </c>
+      <c r="E16">
+        <v>2.7430769230769241</v>
+      </c>
+      <c r="F16">
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="G16">
+        <v>0.66153846153846152</v>
+      </c>
+      <c r="H16">
+        <v>0.60769230769230753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="26">
+        <v>41183</v>
+      </c>
+      <c r="B17">
+        <v>3.359230769230769</v>
+      </c>
+      <c r="C17">
+        <v>2.67</v>
+      </c>
+      <c r="D17">
+        <v>2.7246153846153849</v>
+      </c>
+      <c r="E17">
+        <v>2.740769230769232</v>
+      </c>
+      <c r="F17">
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="G17">
+        <v>0.7</v>
+      </c>
+      <c r="H17">
+        <v>0.61538461538461531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="26">
+        <v>41275</v>
+      </c>
+      <c r="B18">
+        <v>3.4969230769230775</v>
+      </c>
+      <c r="C18">
+        <v>2.7369230769230768</v>
+      </c>
+      <c r="D18">
+        <v>2.6515384615384616</v>
+      </c>
+      <c r="E18">
+        <v>2.7569230769230759</v>
+      </c>
+      <c r="F18">
         <v>0.72307692307692295</v>
       </c>
-      <c r="I10">
-        <v>0.64615384615384586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11">
-        <v>4.6507692307692308</v>
-      </c>
-      <c r="D11">
-        <v>3.8446153846153845</v>
-      </c>
-      <c r="E11">
-        <v>3.4476923076923076</v>
-      </c>
-      <c r="F11">
-        <v>2.740769230769232</v>
-      </c>
-      <c r="G11">
-        <v>0.7</v>
-      </c>
-      <c r="H11">
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="I11">
-        <v>0.58461538461538454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12">
-        <v>4.2915384615384617</v>
-      </c>
-      <c r="D12">
-        <v>3.4730769230769232</v>
-      </c>
-      <c r="E12">
-        <v>3.1169230769230776</v>
-      </c>
-      <c r="F12">
-        <v>2.7361538461538468</v>
-      </c>
-      <c r="G12">
-        <v>0.64615384615384586</v>
-      </c>
-      <c r="H12">
-        <v>0.71538461538461529</v>
-      </c>
-      <c r="I12">
-        <v>0.5692307692307691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13">
-        <v>4.0023076923076921</v>
-      </c>
-      <c r="D13">
-        <v>3.2953846153846156</v>
-      </c>
-      <c r="E13">
-        <v>2.95</v>
-      </c>
-      <c r="F13">
-        <v>2.7423076923076932</v>
-      </c>
-      <c r="G13">
-        <v>0.76923076923076938</v>
-      </c>
-      <c r="H13">
-        <v>0.73846153846153839</v>
-      </c>
-      <c r="I13">
-        <v>0.58461538461538443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14">
-        <v>3.9223076923076929</v>
-      </c>
-      <c r="D14">
-        <v>3.1876923076923074</v>
-      </c>
-      <c r="E14">
-        <v>2.8407692307692307</v>
-      </c>
-      <c r="F14">
-        <v>2.7400000000000011</v>
-      </c>
-      <c r="G14">
-        <v>0.79230769230769238</v>
-      </c>
-      <c r="H14">
-        <v>0.77692307692307694</v>
-      </c>
-      <c r="I14">
-        <v>0.72307692307692306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15">
-        <v>3.7946153846153843</v>
-      </c>
-      <c r="D15">
-        <v>3.0423076923076922</v>
-      </c>
-      <c r="E15">
-        <v>2.8230769230769228</v>
-      </c>
-      <c r="F15">
-        <v>2.7400000000000011</v>
-      </c>
-      <c r="G15">
+      <c r="G18">
+        <v>0.75384615384615394</v>
+      </c>
+      <c r="H18">
+        <v>0.57692307692307676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="26">
+        <v>41365</v>
+      </c>
+      <c r="B19">
+        <v>3.6723076923076925</v>
+      </c>
+      <c r="C19">
+        <v>2.8400000000000003</v>
+      </c>
+      <c r="D19">
+        <v>2.6846153846153844</v>
+      </c>
+      <c r="E19">
+        <v>2.7507692307692304</v>
+      </c>
+      <c r="F19">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="G19">
+        <v>0.74615384615384628</v>
+      </c>
+      <c r="H19">
+        <v>0.52307692307692311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="26">
+        <v>41456</v>
+      </c>
+      <c r="B20">
+        <v>4.4399999999999995</v>
+      </c>
+      <c r="C20">
+        <v>3.4807692307692308</v>
+      </c>
+      <c r="D20">
+        <v>3.1861538461538461</v>
+      </c>
+      <c r="E20">
+        <v>2.746923076923077</v>
+      </c>
+      <c r="F20">
+        <v>0.70769230769230762</v>
+      </c>
+      <c r="G20">
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="H20">
+        <v>0.56153846153846154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="26">
+        <v>41548</v>
+      </c>
+      <c r="B21">
+        <v>4.2930769230769235</v>
+      </c>
+      <c r="C21">
+        <v>3.3453846153846154</v>
+      </c>
+      <c r="D21">
+        <v>2.9892307692307694</v>
+      </c>
+      <c r="E21">
+        <v>2.7438461538461545</v>
+      </c>
+      <c r="F21">
+        <v>0.66153846153846152</v>
+      </c>
+      <c r="G21">
+        <v>0.7</v>
+      </c>
+      <c r="H21">
+        <v>0.43846153846153857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="26">
+        <v>41640</v>
+      </c>
+      <c r="B22">
+        <v>4.3646153846153846</v>
+      </c>
+      <c r="C22">
+        <v>3.4030769230769233</v>
+      </c>
+      <c r="D22">
+        <v>3.0823076923076931</v>
+      </c>
+      <c r="E22">
+        <v>2.7415384615384628</v>
+      </c>
+      <c r="F22">
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="G22">
         <v>0.68461538461538463</v>
       </c>
-      <c r="H15">
-        <v>0.73076923076923062</v>
-      </c>
-      <c r="I15">
-        <v>0.63846153846153841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>3.5538461538461537</v>
-      </c>
-      <c r="D16">
-        <v>2.8376923076923073</v>
-      </c>
-      <c r="E16">
-        <v>2.7507692307692313</v>
-      </c>
-      <c r="F16">
-        <v>2.7430769230769241</v>
-      </c>
-      <c r="G16">
-        <v>0.63076923076923075</v>
-      </c>
-      <c r="H16">
-        <v>0.66153846153846152</v>
-      </c>
-      <c r="I16">
-        <v>0.60769230769230753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17">
-        <v>3.359230769230769</v>
-      </c>
-      <c r="D17">
-        <v>2.67</v>
-      </c>
-      <c r="E17">
-        <v>2.7246153846153849</v>
-      </c>
-      <c r="F17">
-        <v>2.740769230769232</v>
-      </c>
-      <c r="G17">
-        <v>0.63076923076923075</v>
-      </c>
-      <c r="H17">
-        <v>0.7</v>
-      </c>
-      <c r="I17">
-        <v>0.61538461538461531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18">
-        <v>3.4969230769230775</v>
-      </c>
-      <c r="D18">
-        <v>2.7369230769230768</v>
-      </c>
-      <c r="E18">
-        <v>2.6515384615384616</v>
-      </c>
-      <c r="F18">
-        <v>2.7569230769230759</v>
-      </c>
-      <c r="G18">
-        <v>0.72307692307692295</v>
-      </c>
-      <c r="H18">
-        <v>0.75384615384615394</v>
-      </c>
-      <c r="I18">
-        <v>0.57692307692307676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19">
-        <v>3.6723076923076925</v>
-      </c>
-      <c r="D19">
-        <v>2.8400000000000003</v>
-      </c>
-      <c r="E19">
-        <v>2.6846153846153844</v>
-      </c>
-      <c r="F19">
-        <v>2.7507692307692304</v>
-      </c>
-      <c r="G19">
-        <v>0.70769230769230773</v>
-      </c>
-      <c r="H19">
-        <v>0.74615384615384628</v>
-      </c>
-      <c r="I19">
-        <v>0.52307692307692311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20">
-        <v>4.4399999999999995</v>
-      </c>
-      <c r="D20">
-        <v>3.4807692307692308</v>
-      </c>
-      <c r="E20">
-        <v>3.1861538461538461</v>
-      </c>
-      <c r="F20">
-        <v>2.746923076923077</v>
-      </c>
-      <c r="G20">
-        <v>0.70769230769230762</v>
-      </c>
-      <c r="H20">
-        <v>0.73076923076923073</v>
-      </c>
-      <c r="I20">
+      <c r="H22">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="26">
+        <v>41730</v>
+      </c>
+      <c r="B23">
+        <v>4.2276923076923074</v>
+      </c>
+      <c r="C23">
+        <v>3.3138461538461539</v>
+      </c>
+      <c r="D23">
+        <v>3.02</v>
+      </c>
+      <c r="E23">
+        <v>2.7338461538461534</v>
+      </c>
+      <c r="F23">
+        <v>0.55384615384615388</v>
+      </c>
+      <c r="G23">
+        <v>0.6153846153846152</v>
+      </c>
+      <c r="H23">
+        <v>0.42307692307692307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="26">
+        <v>41821</v>
+      </c>
+      <c r="B24">
+        <v>4.1353846153846154</v>
+      </c>
+      <c r="C24">
+        <v>3.2615384615384611</v>
+      </c>
+      <c r="D24">
+        <v>2.9930769230769227</v>
+      </c>
+      <c r="E24">
+        <v>2.7376923076923085</v>
+      </c>
+      <c r="F24">
         <v>0.56153846153846154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21">
-        <v>4.2930769230769235</v>
-      </c>
-      <c r="D21">
-        <v>3.3453846153846154</v>
-      </c>
-      <c r="E21">
-        <v>2.9892307692307694</v>
-      </c>
-      <c r="F21">
-        <v>2.7438461538461545</v>
-      </c>
-      <c r="G21">
-        <v>0.66153846153846152</v>
-      </c>
-      <c r="H21">
-        <v>0.7</v>
-      </c>
-      <c r="I21">
-        <v>0.43846153846153857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22">
-        <v>4.3646153846153846</v>
-      </c>
-      <c r="D22">
-        <v>3.4030769230769233</v>
-      </c>
-      <c r="E22">
-        <v>3.0823076923076931</v>
-      </c>
-      <c r="F22">
-        <v>2.7415384615384628</v>
-      </c>
-      <c r="G22">
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="H22">
-        <v>0.68461538461538463</v>
-      </c>
-      <c r="I22">
-        <v>0.46153846153846162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23">
-        <v>4.2276923076923074</v>
-      </c>
-      <c r="D23">
-        <v>3.3138461538461539</v>
-      </c>
-      <c r="E23">
-        <v>3.02</v>
-      </c>
-      <c r="F23">
-        <v>2.7338461538461534</v>
-      </c>
-      <c r="G23">
-        <v>0.55384615384615388</v>
-      </c>
-      <c r="H23">
-        <v>0.6153846153846152</v>
-      </c>
-      <c r="I23">
-        <v>0.42307692307692307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24">
-        <v>4.1353846153846154</v>
-      </c>
-      <c r="D24">
-        <v>3.2615384615384611</v>
-      </c>
-      <c r="E24">
-        <v>2.9930769230769227</v>
-      </c>
-      <c r="F24">
-        <v>2.7376923076923085</v>
       </c>
       <c r="G24">
         <v>0.56153846153846154</v>
       </c>
       <c r="H24">
-        <v>0.56153846153846154</v>
-      </c>
-      <c r="I24">
         <v>0.46923076923076928</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>66</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="26">
+        <v>41913</v>
+      </c>
+      <c r="B25">
+        <v>3.9635714285714281</v>
       </c>
       <c r="C25">
-        <v>3.9635714285714281</v>
+        <v>3.1742857142857153</v>
       </c>
       <c r="D25">
-        <v>3.1742857142857153</v>
+        <v>2.984285714285714</v>
       </c>
       <c r="E25">
-        <v>2.984285714285714</v>
+        <v>2.740714285714287</v>
       </c>
       <c r="F25">
-        <v>2.740714285714287</v>
+        <v>0.52142857142857135</v>
       </c>
       <c r="G25">
-        <v>0.52142857142857135</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="H25">
-        <v>0.51428571428571423</v>
-      </c>
-      <c r="I25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="26">
+        <v>42005</v>
+      </c>
+      <c r="B26">
+        <v>3.7166666666666663</v>
       </c>
       <c r="C26">
-        <v>3.7166666666666663</v>
+        <v>3.0108333333333337</v>
       </c>
       <c r="D26">
-        <v>3.0108333333333337</v>
+        <v>2.9316666666666666</v>
       </c>
       <c r="E26">
-        <v>2.9316666666666666</v>
+        <v>2.7400000000000007</v>
       </c>
       <c r="F26">
-        <v>2.7400000000000007</v>
+        <v>0.57499999999999984</v>
       </c>
       <c r="G26">
-        <v>0.57499999999999984</v>
+        <v>0.61666666666666659</v>
       </c>
       <c r="H26">
-        <v>0.61666666666666659</v>
-      </c>
-      <c r="I26">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>64</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="26">
+        <v>42095</v>
+      </c>
+      <c r="B27">
+        <v>3.8192307692307699</v>
       </c>
       <c r="C27">
-        <v>3.8192307692307699</v>
+        <v>3.0561538461538458</v>
       </c>
       <c r="D27">
-        <v>3.0561538461538458</v>
+        <v>2.9107692307692306</v>
       </c>
       <c r="E27">
-        <v>2.9107692307692306</v>
+        <v>2.7376923076923085</v>
       </c>
       <c r="F27">
+        <v>0.56153846153846143</v>
+      </c>
+      <c r="G27">
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="H27">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="26">
+        <v>42186</v>
+      </c>
+      <c r="B28">
+        <v>3.9546153846153853</v>
+      </c>
+      <c r="C28">
+        <v>3.1507692307692303</v>
+      </c>
+      <c r="D28">
+        <v>2.9376923076923074</v>
+      </c>
+      <c r="E28">
+        <v>2.7392307692307702</v>
+      </c>
+      <c r="F28">
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="G28">
+        <v>0.60769230769230753</v>
+      </c>
+      <c r="H28">
+        <v>0.4538461538461539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="26">
+        <v>42278</v>
+      </c>
+      <c r="B29">
+        <v>3.8978571428571427</v>
+      </c>
+      <c r="C29">
+        <v>3.1235714285714282</v>
+      </c>
+      <c r="D29">
+        <v>2.9728571428571433</v>
+      </c>
+      <c r="E29">
+        <v>2.745714285714286</v>
+      </c>
+      <c r="F29">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G29">
+        <v>0.60714285714285698</v>
+      </c>
+      <c r="H29">
+        <v>0.42857142857142866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="26">
+        <v>42370</v>
+      </c>
+      <c r="B30">
+        <v>3.7384615384615381</v>
+      </c>
+      <c r="C30">
+        <v>3.0223076923076921</v>
+      </c>
+      <c r="D30">
+        <v>2.9007692307692308</v>
+      </c>
+      <c r="E30">
+        <v>2.7407692307692315</v>
+      </c>
+      <c r="F30">
+        <v>0.47692307692307701</v>
+      </c>
+      <c r="G30">
+        <v>0.5461538461538461</v>
+      </c>
+      <c r="H30">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="26">
+        <v>42461</v>
+      </c>
+      <c r="B31">
+        <v>3.5892307692307694</v>
+      </c>
+      <c r="C31">
+        <v>2.8507692307692305</v>
+      </c>
+      <c r="D31">
+        <v>2.8046153846153854</v>
+      </c>
+      <c r="E31">
         <v>2.7376923076923085</v>
       </c>
-      <c r="G27">
-        <v>0.56153846153846143</v>
-      </c>
-      <c r="H27">
-        <v>0.63076923076923075</v>
-      </c>
-      <c r="I27">
-        <v>0.46153846153846162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28">
-        <v>3.9546153846153853</v>
-      </c>
-      <c r="D28">
-        <v>3.1507692307692303</v>
-      </c>
-      <c r="E28">
-        <v>2.9376923076923074</v>
-      </c>
-      <c r="F28">
-        <v>2.7392307692307702</v>
-      </c>
-      <c r="G28">
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="H28">
-        <v>0.60769230769230753</v>
-      </c>
-      <c r="I28">
-        <v>0.4538461538461539</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29">
-        <v>3.8978571428571427</v>
-      </c>
-      <c r="D29">
-        <v>3.1235714285714282</v>
-      </c>
-      <c r="E29">
-        <v>2.9728571428571433</v>
-      </c>
-      <c r="F29">
-        <v>2.745714285714286</v>
-      </c>
-      <c r="G29">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H29">
-        <v>0.60714285714285698</v>
-      </c>
-      <c r="I29">
-        <v>0.42857142857142866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30">
-        <v>3.7384615384615381</v>
-      </c>
-      <c r="D30">
-        <v>3.0223076923076921</v>
-      </c>
-      <c r="E30">
-        <v>2.9007692307692308</v>
-      </c>
-      <c r="F30">
-        <v>2.7407692307692315</v>
-      </c>
-      <c r="G30">
-        <v>0.47692307692307701</v>
-      </c>
-      <c r="H30">
-        <v>0.5461538461538461</v>
-      </c>
-      <c r="I30">
+      <c r="F31">
+        <v>0.49230769230769234</v>
+      </c>
+      <c r="G31">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="H31">
+        <v>0.49230769230769234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="26">
+        <v>42552</v>
+      </c>
+      <c r="B32">
+        <v>3.4461538461538459</v>
+      </c>
+      <c r="C32">
+        <v>2.7500000000000004</v>
+      </c>
+      <c r="D32">
+        <v>2.773076923076923</v>
+      </c>
+      <c r="E32">
+        <v>2.740769230769232</v>
+      </c>
+      <c r="F32">
+        <v>0.49230769230769234</v>
+      </c>
+      <c r="G32">
+        <v>0.52307692307692299</v>
+      </c>
+      <c r="H32">
+        <v>0.44615384615384623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="26">
+        <v>42644</v>
+      </c>
+      <c r="B33">
+        <v>3.8423076923076929</v>
+      </c>
+      <c r="C33">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="D33">
+        <v>3.0292307692307689</v>
+      </c>
+      <c r="E33">
+        <v>2.7400000000000011</v>
+      </c>
+      <c r="F33">
+        <v>0.50769230769230766</v>
+      </c>
+      <c r="G33">
+        <v>0.51538461538461544</v>
+      </c>
+      <c r="H33">
+        <v>0.41538461538461541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="26">
+        <v>42736</v>
+      </c>
+      <c r="B34">
+        <v>4.1730769230769234</v>
+      </c>
+      <c r="C34">
+        <v>3.3953846153846152</v>
+      </c>
+      <c r="D34">
+        <v>3.2169230769230768</v>
+      </c>
+      <c r="E34">
+        <v>2.7400000000000011</v>
+      </c>
+      <c r="F34">
+        <v>0.47692307692307695</v>
+      </c>
+      <c r="G34">
+        <v>0.48461538461538461</v>
+      </c>
+      <c r="H34">
+        <v>0.40769230769230774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="26">
+        <v>42826</v>
+      </c>
+      <c r="B35">
+        <v>3.9799999999999995</v>
+      </c>
+      <c r="C35">
+        <v>3.2376923076923081</v>
+      </c>
+      <c r="D35">
+        <v>3.1338461538461542</v>
+      </c>
+      <c r="E35">
+        <v>2.7392307692307698</v>
+      </c>
+      <c r="F35">
+        <v>0.49230769230769234</v>
+      </c>
+      <c r="G35">
+        <v>0.5</v>
+      </c>
+      <c r="H35">
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31">
-        <v>3.5892307692307694</v>
-      </c>
-      <c r="D31">
-        <v>2.8507692307692305</v>
-      </c>
-      <c r="E31">
-        <v>2.8046153846153854</v>
-      </c>
-      <c r="F31">
-        <v>2.7376923076923085</v>
-      </c>
-      <c r="G31">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="26">
+        <v>42917</v>
+      </c>
+      <c r="B36">
+        <v>3.8838461538461533</v>
+      </c>
+      <c r="C36">
+        <v>3.1661538461538465</v>
+      </c>
+      <c r="D36">
+        <v>3.1761538461538468</v>
+      </c>
+      <c r="E36">
+        <v>2.7400000000000011</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.51538461538461533</v>
+      </c>
+      <c r="H36">
+        <v>0.46923076923076934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="26">
+        <v>43009</v>
+      </c>
+      <c r="B37">
+        <v>3.9223076923076921</v>
+      </c>
+      <c r="C37">
+        <v>3.2907692307692309</v>
+      </c>
+      <c r="D37">
+        <v>3.2684615384615379</v>
+      </c>
+      <c r="E37">
+        <v>2.7430769230769232</v>
+      </c>
+      <c r="F37">
         <v>0.49230769230769234</v>
-      </c>
-      <c r="H31">
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="I31">
-        <v>0.49230769230769234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32">
-        <v>3.4461538461538459</v>
-      </c>
-      <c r="D32">
-        <v>2.7500000000000004</v>
-      </c>
-      <c r="E32">
-        <v>2.773076923076923</v>
-      </c>
-      <c r="F32">
-        <v>2.740769230769232</v>
-      </c>
-      <c r="G32">
-        <v>0.49230769230769234</v>
-      </c>
-      <c r="H32">
-        <v>0.52307692307692299</v>
-      </c>
-      <c r="I32">
-        <v>0.44615384615384623</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33">
-        <v>3.8423076923076929</v>
-      </c>
-      <c r="D33">
-        <v>3.0999999999999996</v>
-      </c>
-      <c r="E33">
-        <v>3.0292307692307689</v>
-      </c>
-      <c r="F33">
-        <v>2.7400000000000011</v>
-      </c>
-      <c r="G33">
-        <v>0.50769230769230766</v>
-      </c>
-      <c r="H33">
-        <v>0.51538461538461544</v>
-      </c>
-      <c r="I33">
-        <v>0.41538461538461541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34">
-        <v>4.1730769230769234</v>
-      </c>
-      <c r="D34">
-        <v>3.3953846153846152</v>
-      </c>
-      <c r="E34">
-        <v>3.2169230769230768</v>
-      </c>
-      <c r="F34">
-        <v>2.7400000000000011</v>
-      </c>
-      <c r="G34">
-        <v>0.47692307692307695</v>
-      </c>
-      <c r="H34">
-        <v>0.48461538461538461</v>
-      </c>
-      <c r="I34">
-        <v>0.40769230769230774</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35">
-        <v>3.9799999999999995</v>
-      </c>
-      <c r="D35">
-        <v>3.2376923076923081</v>
-      </c>
-      <c r="E35">
-        <v>3.1338461538461542</v>
-      </c>
-      <c r="F35">
-        <v>2.7392307692307698</v>
-      </c>
-      <c r="G35">
-        <v>0.49230769230769234</v>
-      </c>
-      <c r="H35">
-        <v>0.5</v>
-      </c>
-      <c r="I35">
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36">
-        <v>3.8838461538461533</v>
-      </c>
-      <c r="D36">
-        <v>3.1661538461538465</v>
-      </c>
-      <c r="E36">
-        <v>3.1761538461538468</v>
-      </c>
-      <c r="F36">
-        <v>2.7400000000000011</v>
-      </c>
-      <c r="G36">
-        <v>0.5</v>
-      </c>
-      <c r="H36">
-        <v>0.51538461538461533</v>
-      </c>
-      <c r="I36">
-        <v>0.46923076923076934</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37">
-        <v>3.9223076923076921</v>
-      </c>
-      <c r="D37">
-        <v>3.2907692307692309</v>
-      </c>
-      <c r="E37">
-        <v>3.2684615384615379</v>
-      </c>
-      <c r="F37">
-        <v>2.7430769230769232</v>
       </c>
       <c r="G37">
         <v>0.49230769230769234</v>
       </c>
       <c r="H37">
-        <v>0.49230769230769234</v>
-      </c>
-      <c r="I37">
         <v>0.37692307692307686</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>2018</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="26">
+        <v>43101</v>
+      </c>
+      <c r="B38">
+        <v>4.2823076923076924</v>
       </c>
       <c r="C38">
-        <v>4.2823076923076924</v>
+        <v>3.7399999999999998</v>
       </c>
       <c r="D38">
-        <v>3.7399999999999998</v>
+        <v>3.5792307692307692</v>
       </c>
       <c r="E38">
-        <v>3.5792307692307692</v>
+        <v>2.75</v>
       </c>
       <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>0.52307692307692311</v>
+      </c>
+      <c r="H38">
+        <v>0.39230769230769236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="26">
+        <v>43191</v>
+      </c>
+      <c r="B39">
+        <v>4.5446153846153843</v>
+      </c>
+      <c r="C39">
+        <v>4.014615384615384</v>
+      </c>
+      <c r="D39">
+        <v>3.7584615384615385</v>
+      </c>
+      <c r="E39">
+        <v>2.7646153846153845</v>
+      </c>
+      <c r="F39">
+        <v>0.40769230769230769</v>
+      </c>
+      <c r="G39">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="H39">
+        <v>0.31538461538461537</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="26">
+        <v>43282</v>
+      </c>
+      <c r="B40">
+        <v>4.5669230769230769</v>
+      </c>
+      <c r="C40">
+        <v>4.0338461538461541</v>
+      </c>
+      <c r="D40">
+        <v>3.8815384615384616</v>
+      </c>
+      <c r="E40">
+        <v>2.7623076923076919</v>
+      </c>
+      <c r="F40">
+        <v>0.4538461538461539</v>
+      </c>
+      <c r="G40">
+        <v>0.47692307692307695</v>
+      </c>
+      <c r="H40">
+        <v>0.31538461538461526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="26">
+        <v>43374</v>
+      </c>
+      <c r="B41">
+        <v>4.7846153846153845</v>
+      </c>
+      <c r="C41">
+        <v>4.212307692307693</v>
+      </c>
+      <c r="D41">
+        <v>4.0723076923076924</v>
+      </c>
+      <c r="E41">
+        <v>2.7676923076923075</v>
+      </c>
+      <c r="F41">
+        <v>0.43846153846153857</v>
+      </c>
+      <c r="G41">
+        <v>0.47692307692307695</v>
+      </c>
+      <c r="H41">
+        <v>0.29999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="26">
+        <v>43466</v>
+      </c>
+      <c r="B42">
+        <v>4.3738461538461548</v>
+      </c>
+      <c r="C42">
+        <v>3.8153846153846156</v>
+      </c>
+      <c r="D42">
+        <v>3.87</v>
+      </c>
+      <c r="E42">
+        <v>2.7623076923076928</v>
+      </c>
+      <c r="F42">
+        <v>0.40769230769230774</v>
+      </c>
+      <c r="G42">
+        <v>0.4538461538461539</v>
+      </c>
+      <c r="H42">
+        <v>0.29230769230769221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="26">
+        <v>43556</v>
+      </c>
+      <c r="B43">
+        <v>4.0107692307692311</v>
+      </c>
+      <c r="C43">
+        <v>3.4646153846153851</v>
+      </c>
+      <c r="D43">
+        <v>3.6276923076923073</v>
+      </c>
+      <c r="E43">
+        <v>2.7538461538461538</v>
+      </c>
+      <c r="F43">
+        <v>0.44615384615384623</v>
+      </c>
+      <c r="G43">
+        <v>0.50769230769230766</v>
+      </c>
+      <c r="H43">
+        <v>0.39230769230769236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="26">
+        <v>43647</v>
+      </c>
+      <c r="B44">
+        <v>3.6584615384615393</v>
+      </c>
+      <c r="C44">
+        <v>3.1292307692307699</v>
+      </c>
+      <c r="D44">
+        <v>3.3992307692307695</v>
+      </c>
+      <c r="E44">
+        <v>2.7446153846153858</v>
+      </c>
+      <c r="F44">
+        <v>0.50769230769230766</v>
+      </c>
+      <c r="G44">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="H44">
+        <v>0.3692307692307692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="26">
+        <v>43739</v>
+      </c>
+      <c r="B45">
+        <v>3.7</v>
+      </c>
+      <c r="C45">
+        <v>3.1576923076923071</v>
+      </c>
+      <c r="D45">
+        <v>3.3946153846153848</v>
+      </c>
+      <c r="E45">
         <v>2.75</v>
       </c>
-      <c r="G38">
-        <v>0.5</v>
-      </c>
-      <c r="H38">
-        <v>0.52307692307692311</v>
-      </c>
-      <c r="I38">
-        <v>0.39230769230769236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39">
-        <v>4.5446153846153843</v>
-      </c>
-      <c r="D39">
-        <v>4.014615384615384</v>
-      </c>
-      <c r="E39">
-        <v>3.7584615384615385</v>
-      </c>
-      <c r="F39">
-        <v>2.7646153846153845</v>
-      </c>
-      <c r="G39">
-        <v>0.40769230769230769</v>
-      </c>
-      <c r="H39">
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="I39">
-        <v>0.31538461538461537</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40">
-        <v>4.5669230769230769</v>
-      </c>
-      <c r="D40">
-        <v>4.0338461538461541</v>
-      </c>
-      <c r="E40">
-        <v>3.8815384615384616</v>
-      </c>
-      <c r="F40">
-        <v>2.7623076923076919</v>
-      </c>
-      <c r="G40">
-        <v>0.4538461538461539</v>
-      </c>
-      <c r="H40">
-        <v>0.47692307692307695</v>
-      </c>
-      <c r="I40">
-        <v>0.31538461538461526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41">
-        <v>4.7846153846153845</v>
-      </c>
-      <c r="D41">
-        <v>4.212307692307693</v>
-      </c>
-      <c r="E41">
-        <v>4.0723076923076924</v>
-      </c>
-      <c r="F41">
-        <v>2.7676923076923075</v>
-      </c>
-      <c r="G41">
-        <v>0.43846153846153857</v>
-      </c>
-      <c r="H41">
-        <v>0.47692307692307695</v>
-      </c>
-      <c r="I41">
+      <c r="F45">
+        <v>0.53846153846153855</v>
+      </c>
+      <c r="G45">
+        <v>0.58461538461538465</v>
+      </c>
+      <c r="H45">
+        <v>0.36153846153846148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="26">
+        <v>43831</v>
+      </c>
+      <c r="B46">
+        <v>3.5215384615384613</v>
+      </c>
+      <c r="C46">
+        <v>2.983076923076923</v>
+      </c>
+      <c r="D46">
+        <v>3.2584615384615385</v>
+      </c>
+      <c r="E46">
+        <v>2.7507692307692304</v>
+      </c>
+      <c r="F46">
+        <v>0.72307692307692295</v>
+      </c>
+      <c r="G46">
+        <v>0.70769230769230762</v>
+      </c>
+      <c r="H46">
+        <v>0.25384615384615389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="26">
+        <v>43922</v>
+      </c>
+      <c r="B47">
+        <v>3.2392307692307698</v>
+      </c>
+      <c r="C47">
+        <v>2.7076923076923078</v>
+      </c>
+      <c r="D47">
+        <v>3.1984615384615385</v>
+      </c>
+      <c r="E47">
+        <v>2.75</v>
+      </c>
+      <c r="F47">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G47">
+        <v>0.73846153846153861</v>
+      </c>
+      <c r="H47">
+        <v>0.36153846153846153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="26">
+        <v>44013</v>
+      </c>
+      <c r="B48">
+        <v>2.9523076923076923</v>
+      </c>
+      <c r="C48">
+        <v>2.4646153846153851</v>
+      </c>
+      <c r="D48">
+        <v>2.971538461538461</v>
+      </c>
+      <c r="E48">
+        <v>2.75</v>
+      </c>
+      <c r="F48">
+        <v>0.74615384615384606</v>
+      </c>
+      <c r="G48">
+        <v>0.79230769230769238</v>
+      </c>
+      <c r="H48">
+        <v>0.29230769230769232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="26">
+        <v>44105</v>
+      </c>
+      <c r="B49">
+        <v>2.7607142857142861</v>
+      </c>
+      <c r="C49">
+        <v>2.2885714285714287</v>
+      </c>
+      <c r="D49">
+        <v>2.8850000000000002</v>
+      </c>
+      <c r="E49">
+        <v>2.75</v>
+      </c>
+      <c r="F49">
+        <v>0.60714285714285698</v>
+      </c>
+      <c r="G49">
+        <v>0.7</v>
+      </c>
+      <c r="H49">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="26">
+        <v>44197</v>
+      </c>
+      <c r="B50">
+        <v>2.875833333333333</v>
+      </c>
+      <c r="C50">
+        <v>2.2766666666666664</v>
+      </c>
+      <c r="D50">
+        <v>2.8274999999999992</v>
+      </c>
+      <c r="E50">
+        <v>2.75</v>
+      </c>
+      <c r="F50">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="G50">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="H50">
+        <v>0.27499999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="26">
+        <v>44287</v>
+      </c>
+      <c r="B51">
+        <v>3.0038461538461543</v>
+      </c>
+      <c r="C51">
+        <v>2.3092307692307692</v>
+      </c>
+      <c r="D51">
+        <v>2.6723076923076925</v>
+      </c>
+      <c r="E51">
+        <v>2.75</v>
+      </c>
+      <c r="F51">
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="G51">
+        <v>0.67692307692307685</v>
+      </c>
+      <c r="H51">
+        <v>0.26923076923076922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="26">
+        <v>44378</v>
+      </c>
+      <c r="B52">
+        <v>2.8721428571428573</v>
+      </c>
+      <c r="C52">
+        <v>2.1714285714285717</v>
+      </c>
+      <c r="D52">
+        <v>2.4592857142857141</v>
+      </c>
+      <c r="E52">
+        <v>2.75</v>
+      </c>
+      <c r="F52">
+        <v>0.63571428571428557</v>
+      </c>
+      <c r="G52">
+        <v>0.66428571428571426</v>
+      </c>
+      <c r="H52">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="26">
+        <v>44470</v>
+      </c>
+      <c r="B53">
+        <v>3.0792307692307692</v>
+      </c>
+      <c r="C53">
+        <v>2.3384615384615381</v>
+      </c>
+      <c r="D53">
+        <v>2.4899999999999998</v>
+      </c>
+      <c r="E53">
+        <v>2.75</v>
+      </c>
+      <c r="F53">
+        <v>0.66923076923076918</v>
+      </c>
+      <c r="G53">
+        <v>0.68461538461538451</v>
+      </c>
+      <c r="H53">
+        <v>0.32307692307692304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="26">
+        <v>44562</v>
+      </c>
+      <c r="B54">
+        <v>3.8223076923076933</v>
+      </c>
+      <c r="C54">
+        <v>3.0446153846153843</v>
+      </c>
+      <c r="D54">
+        <v>2.8984615384615391</v>
+      </c>
+      <c r="E54">
+        <v>2.7507692307692304</v>
+      </c>
+      <c r="F54">
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="G54">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="H54">
         <v>0.29999999999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42">
-        <v>4.3738461538461548</v>
-      </c>
-      <c r="D42">
-        <v>3.8153846153846156</v>
-      </c>
-      <c r="E42">
-        <v>3.87</v>
-      </c>
-      <c r="F42">
-        <v>2.7623076923076928</v>
-      </c>
-      <c r="G42">
-        <v>0.40769230769230774</v>
-      </c>
-      <c r="H42">
-        <v>0.4538461538461539</v>
-      </c>
-      <c r="I42">
-        <v>0.29230769230769221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43">
-        <v>4.0107692307692311</v>
-      </c>
-      <c r="D43">
-        <v>3.4646153846153851</v>
-      </c>
-      <c r="E43">
-        <v>3.6276923076923073</v>
-      </c>
-      <c r="F43">
-        <v>2.7538461538461538</v>
-      </c>
-      <c r="G43">
-        <v>0.44615384615384623</v>
-      </c>
-      <c r="H43">
-        <v>0.50769230769230766</v>
-      </c>
-      <c r="I43">
-        <v>0.39230769230769236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44">
-        <v>3.6584615384615393</v>
-      </c>
-      <c r="D44">
-        <v>3.1292307692307699</v>
-      </c>
-      <c r="E44">
-        <v>3.3992307692307695</v>
-      </c>
-      <c r="F44">
-        <v>2.7446153846153858</v>
-      </c>
-      <c r="G44">
-        <v>0.50769230769230766</v>
-      </c>
-      <c r="H44">
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="I44">
-        <v>0.3692307692307692</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45">
-        <v>3.7</v>
-      </c>
-      <c r="D45">
-        <v>3.1576923076923071</v>
-      </c>
-      <c r="E45">
-        <v>3.3946153846153848</v>
-      </c>
-      <c r="F45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="26">
+        <v>44652</v>
+      </c>
+      <c r="B55">
+        <v>5.2661538461538466</v>
+      </c>
+      <c r="C55">
+        <v>4.4507692307692315</v>
+      </c>
+      <c r="D55">
+        <v>4.0307692307692298</v>
+      </c>
+      <c r="E55">
         <v>2.75</v>
       </c>
-      <c r="G45">
-        <v>0.53846153846153855</v>
-      </c>
-      <c r="H45">
-        <v>0.58461538461538465</v>
-      </c>
-      <c r="I45">
-        <v>0.36153846153846148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46">
-        <v>3.5215384615384613</v>
-      </c>
-      <c r="D46">
-        <v>2.983076923076923</v>
-      </c>
-      <c r="E46">
-        <v>3.2584615384615385</v>
-      </c>
-      <c r="F46">
-        <v>2.7507692307692304</v>
-      </c>
-      <c r="G46">
-        <v>0.72307692307692295</v>
-      </c>
-      <c r="H46">
-        <v>0.70769230769230762</v>
-      </c>
-      <c r="I46">
-        <v>0.25384615384615389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47">
-        <v>3.2392307692307698</v>
-      </c>
-      <c r="D47">
-        <v>2.7076923076923078</v>
-      </c>
-      <c r="E47">
-        <v>3.1984615384615385</v>
-      </c>
-      <c r="F47">
+      <c r="F55">
+        <v>0.85384615384615392</v>
+      </c>
+      <c r="G55">
+        <v>0.85384615384615414</v>
+      </c>
+      <c r="H55">
+        <v>0.28461538461538455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="26">
+        <v>44743</v>
+      </c>
+      <c r="B56">
+        <v>5.6230769230769235</v>
+      </c>
+      <c r="C56">
+        <v>4.8807692307692312</v>
+      </c>
+      <c r="D56">
+        <v>4.5323076923076915</v>
+      </c>
+      <c r="E56">
         <v>2.75</v>
       </c>
-      <c r="G47">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H47">
-        <v>0.73846153846153861</v>
-      </c>
-      <c r="I47">
-        <v>0.36153846153846153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48">
-        <v>2.9523076923076923</v>
-      </c>
-      <c r="D48">
-        <v>2.4646153846153851</v>
-      </c>
-      <c r="E48">
-        <v>2.971538461538461</v>
-      </c>
-      <c r="F48">
+      <c r="F56">
+        <v>0.83076923076923082</v>
+      </c>
+      <c r="G56">
+        <v>0.8</v>
+      </c>
+      <c r="H56">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="27">
+        <v>44470</v>
+      </c>
+      <c r="B57">
+        <v>6.9383333333333335</v>
+      </c>
+      <c r="C57">
+        <v>6.208333333333333</v>
+      </c>
+      <c r="D57">
+        <v>5.8083333333333336</v>
+      </c>
+      <c r="E57">
         <v>2.75</v>
       </c>
-      <c r="G48">
-        <v>0.74615384615384606</v>
-      </c>
-      <c r="H48">
-        <v>0.79230769230769238</v>
-      </c>
-      <c r="I48">
-        <v>0.29230769230769232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49">
-        <v>2.7607142857142861</v>
-      </c>
-      <c r="D49">
-        <v>2.2885714285714287</v>
-      </c>
-      <c r="E49">
-        <v>2.8850000000000002</v>
-      </c>
-      <c r="F49">
-        <v>2.75</v>
-      </c>
-      <c r="G49">
-        <v>0.60714285714285698</v>
-      </c>
-      <c r="H49">
-        <v>0.7</v>
-      </c>
-      <c r="I49">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50">
-        <v>2.875833333333333</v>
-      </c>
-      <c r="D50">
-        <v>2.2766666666666664</v>
-      </c>
-      <c r="E50">
-        <v>2.8274999999999992</v>
-      </c>
-      <c r="F50">
-        <v>2.75</v>
-      </c>
-      <c r="G50">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="H50">
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="I50">
-        <v>0.27499999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51">
-        <v>3.0038461538461543</v>
-      </c>
-      <c r="D51">
-        <v>2.3092307692307692</v>
-      </c>
-      <c r="E51">
-        <v>2.6723076923076925</v>
-      </c>
-      <c r="F51">
-        <v>2.75</v>
-      </c>
-      <c r="G51">
-        <v>0.63076923076923075</v>
-      </c>
-      <c r="H51">
-        <v>0.67692307692307685</v>
-      </c>
-      <c r="I51">
-        <v>0.26923076923076922</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52">
-        <v>2.8721428571428573</v>
-      </c>
-      <c r="D52">
-        <v>2.1714285714285717</v>
-      </c>
-      <c r="E52">
-        <v>2.4592857142857141</v>
-      </c>
-      <c r="F52">
-        <v>2.75</v>
-      </c>
-      <c r="G52">
-        <v>0.63571428571428557</v>
-      </c>
-      <c r="H52">
-        <v>0.66428571428571426</v>
-      </c>
-      <c r="I52">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53">
-        <v>3.0792307692307692</v>
-      </c>
-      <c r="D53">
-        <v>2.3384615384615381</v>
-      </c>
-      <c r="E53">
-        <v>2.4899999999999998</v>
-      </c>
-      <c r="F53">
-        <v>2.75</v>
-      </c>
-      <c r="G53">
-        <v>0.66923076923076918</v>
-      </c>
-      <c r="H53">
-        <v>0.68461538461538451</v>
-      </c>
-      <c r="I53">
-        <v>0.32307692307692304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54">
-        <v>3.8223076923076933</v>
-      </c>
-      <c r="D54">
-        <v>3.0446153846153843</v>
-      </c>
-      <c r="E54">
-        <v>2.8984615384615391</v>
-      </c>
-      <c r="F54">
-        <v>2.7507692307692304</v>
-      </c>
-      <c r="G54">
-        <v>0.73076923076923073</v>
-      </c>
-      <c r="H54">
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="I54">
-        <v>0.29999999999999993</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55">
-        <v>5.2661538461538466</v>
-      </c>
-      <c r="D55">
-        <v>4.4507692307692315</v>
-      </c>
-      <c r="E55">
-        <v>4.0307692307692298</v>
-      </c>
-      <c r="F55">
-        <v>2.75</v>
-      </c>
-      <c r="G55">
-        <v>0.85384615384615392</v>
-      </c>
-      <c r="H55">
-        <v>0.85384615384615414</v>
-      </c>
-      <c r="I55">
-        <v>0.28461538461538455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56">
-        <v>5.6230769230769235</v>
-      </c>
-      <c r="D56">
-        <v>4.8807692307692312</v>
-      </c>
-      <c r="E56">
-        <v>4.5323076923076915</v>
-      </c>
-      <c r="F56">
-        <v>2.75</v>
-      </c>
-      <c r="G56">
-        <v>0.83076923076923082</v>
-      </c>
-      <c r="H56">
-        <v>0.8</v>
-      </c>
-      <c r="I56">
-        <v>0.30769230769230771</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57">
-        <v>6.9383333333333335</v>
-      </c>
-      <c r="D57">
-        <v>6.208333333333333</v>
-      </c>
-      <c r="E57">
-        <v>5.8083333333333336</v>
-      </c>
       <c r="F57">
-        <v>2.75</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="G57">
-        <v>1.1333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H57">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I57">
         <v>0.26666666666666666</v>
       </c>
     </row>
